--- a/experiment result/64_0.1_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.1_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08065756819938374</v>
+        <v>0.0225142260356791</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1198471318528063</v>
+        <v>0.01527861467456983</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1284003063052038</v>
+        <v>0.01490867384990775</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1175753359866984</v>
+        <v>0.03413425233548169</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08072525957613354</v>
+        <v>0.01523673550391918</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1255978983193682</v>
+        <v>0.07615983350712721</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1234263710824776</v>
+        <v>0.008426086693388476</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1165643183175759</v>
+        <v>0.04474349167076663</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09839716419763365</v>
+        <v>0.02419973003311447</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1102434079173138</v>
+        <v>0.05550607878715533</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1616249992952425</v>
+        <v>0.09756722744442278</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.194664244022116</v>
+        <v>0.1290185022766608</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1359929115906968</v>
+        <v>0.02557916008863348</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1484283540526392</v>
+        <v>0.03162536978347173</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1319301329365689</v>
+        <v>0.03453609704533404</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1169024123841872</v>
+        <v>0.05254552758611521</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1274506727919658</v>
+        <v>0.05517541108510467</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.106094358745093</v>
+        <v>0.001749660957675345</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1065722452741591</v>
+        <v>0.04154848401305997</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1396893121301354</v>
+        <v>0.04987249196693893</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0979062916438717</v>
+        <v>0.02169162260683839</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1056716734843938</v>
+        <v>0.01623757351108127</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1255283916069549</v>
+        <v>0.03409419548981978</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06230173357122841</v>
+        <v>0.01002440068562505</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08410425348070336</v>
+        <v>0.008333328494054815</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1493979052117332</v>
+        <v>0.05190704922855073</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1180080049880251</v>
+        <v>0.01546240289404012</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07045480155512908</v>
+        <v>0.03113423181442174</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1082353575870021</v>
+        <v>0.06014079627334268</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1288335194508708</v>
+        <v>0.03465854679628612</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04726511148238111</v>
+        <v>0.003693967350064537</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1244228616726777</v>
+        <v>0.006970933979731095</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1420498060653062</v>
+        <v>0.03904379340348493</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08338937368373375</v>
+        <v>0.00986439846015226</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08558736966454493</v>
+        <v>0.0252361046089337</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1504542721800197</v>
+        <v>0.05416915662855013</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08906645330293686</v>
+        <v>0.00532853049596559</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1517530773027625</v>
+        <v>0.03024640154076799</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06621892246166165</v>
+        <v>0.01957362681168956</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1279438149953929</v>
+        <v>0.1055612033133601</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1409407952073539</v>
+        <v>0.0951262918254846</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09070947197587123</v>
+        <v>0.02401563426707998</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06084283711899215</v>
+        <v>0.04285111480037786</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08176177110159683</v>
+        <v>0.02293537445399147</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07154187634046957</v>
+        <v>0.02479308709603328</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1446613127747855</v>
+        <v>0.0457302366627332</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.141824469698598</v>
+        <v>0.04691301735109542</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06897144034593358</v>
+        <v>0.01018597817147784</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1285910518070698</v>
+        <v>0.02898154617361535</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1018361510340305</v>
+        <v>0.01426581748087671</v>
       </c>
     </row>
   </sheetData>
